--- a/char_frac.xlsx
+++ b/char_frac.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\gd\=x=\go\src\github.com\softlandia\cpd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\go\src\github.com\softlandia\cpd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="170">
   <si>
     <t>,</t>
   </si>
@@ -995,7 +995,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="H17" sqref="H17:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,11 +1444,17 @@
       <c r="G14" s="14">
         <v>3.2099999999999997E-2</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="6" t="s">
         <v>40</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1471,11 +1477,17 @@
       <c r="G15" s="14">
         <v>2.98E-2</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="6" t="s">
         <v>78</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1498,14 +1510,20 @@
       <c r="G16" s="14">
         <v>2.81E-2</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="6" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1525,14 +1543,20 @@
       <c r="G17" s="14">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="7" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1559,7 +1583,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1586,7 +1610,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1613,7 +1637,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1640,7 +1664,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -1667,7 +1691,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -1694,7 +1718,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -1721,7 +1745,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -1748,7 +1772,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -1775,7 +1799,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -1802,7 +1826,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -1829,7 +1853,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -1856,7 +1880,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -1883,7 +1907,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -1910,7 +1934,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>

--- a/char_frac.xlsx
+++ b/char_frac.xlsx
@@ -995,7 +995,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:I17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,10 +1543,10 @@
       <c r="G17" s="14">
         <v>2.6200000000000001E-2</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="6" t="s">
         <v>90</v>
       </c>
       <c r="J17" s="4" t="s">

--- a/char_frac.xlsx
+++ b/char_frac.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9885" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="176">
   <si>
     <t>,</t>
   </si>
@@ -534,6 +535,24 @@
   </si>
   <si>
     <t>0xD081</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>CHAR</t>
+  </si>
+  <si>
+    <t>LOW2</t>
+  </si>
+  <si>
+    <t>UPPER3</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>LOW3</t>
   </si>
 </sst>
 </file>
@@ -543,7 +562,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,6 +604,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -610,7 +636,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -666,13 +692,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -710,13 +756,47 @@
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Calculation" xfId="1" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -727,6 +807,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="C2:H35" totalsRowShown="0">
+  <autoFilter ref="C2:H35"/>
+  <sortState ref="C3:K35">
+    <sortCondition ref="H2:H35"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" name="#" dataDxfId="5"/>
+    <tableColumn id="6" name="LOW2" dataDxfId="4"/>
+    <tableColumn id="9" name="LOW3" dataDxfId="0"/>
+    <tableColumn id="7" name="UPPER3" dataDxfId="3"/>
+    <tableColumn id="8" name="Column1" dataDxfId="1">
+      <calculatedColumnFormula>"// "&amp;Table1[[#This Row],[CHAR]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="CHAR" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -994,7 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -2046,4 +2146,1092 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AN35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" customWidth="1"/>
+    <col min="6" max="8" width="11.140625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="2"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="15" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" style="15" customWidth="1"/>
+    <col min="15" max="16" width="4.85546875" style="15" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" style="15" customWidth="1"/>
+    <col min="18" max="19" width="4.85546875" style="15" customWidth="1"/>
+    <col min="20" max="20" width="3.85546875" style="15" customWidth="1"/>
+    <col min="21" max="22" width="4.85546875" style="15" customWidth="1"/>
+    <col min="23" max="23" width="3.85546875" style="15" customWidth="1"/>
+    <col min="24" max="25" width="4.85546875" style="15" customWidth="1"/>
+    <col min="26" max="26" width="2.28515625" style="15" customWidth="1"/>
+    <col min="27" max="28" width="5.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2" style="15" customWidth="1"/>
+    <col min="30" max="30" width="5.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="5.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="2" style="15" customWidth="1"/>
+    <col min="33" max="34" width="5.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="2" style="15" customWidth="1"/>
+    <col min="36" max="37" width="5.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="1.5703125" style="15" customWidth="1"/>
+    <col min="39" max="40" width="5.140625" style="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="M2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AH2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM2"/>
+      <c r="AN2"/>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3"/>
+      <c r="C3" s="3">
+        <v>3</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="G3" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'а'</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="W3" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC3" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF3" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="AJ3" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM3"/>
+      <c r="AN3"/>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4"/>
+      <c r="C4" s="3">
+        <v>21</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'б'</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="AM4"/>
+      <c r="AN4"/>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5"/>
+      <c r="C5" s="3">
+        <v>9</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'в'</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="AM5"/>
+      <c r="AN5"/>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6"/>
+      <c r="C6" s="3">
+        <v>19</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'г'</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="AM6"/>
+      <c r="AN6"/>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7"/>
+      <c r="C7" s="3">
+        <v>13</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'д'</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="AM7"/>
+      <c r="AN7"/>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8"/>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'е'</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="AM8"/>
+      <c r="AN8"/>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9"/>
+      <c r="C9" s="3">
+        <v>33</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'ё'</v>
+      </c>
+      <c r="H9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="AM9"/>
+      <c r="AN9"/>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10"/>
+      <c r="C10" s="3">
+        <v>25</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'ж'</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="AM10"/>
+      <c r="AN10"/>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11"/>
+      <c r="C11" s="3">
+        <v>20</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'з'</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="AM11"/>
+      <c r="AN11"/>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12"/>
+      <c r="C12" s="3">
+        <v>4</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'и'</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13"/>
+      <c r="C13" s="3">
+        <v>23</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'й'</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14"/>
+      <c r="C14" s="3">
+        <v>11</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'к'</v>
+      </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="AM14"/>
+      <c r="AN14"/>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15"/>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'л'</v>
+      </c>
+      <c r="H15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="AM15"/>
+      <c r="AN15"/>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16"/>
+      <c r="C16" s="3">
+        <v>12</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'м'</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+      <c r="AM16"/>
+      <c r="AN16"/>
+    </row>
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17"/>
+      <c r="C17" s="3">
+        <v>5</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'н'</v>
+      </c>
+      <c r="H17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="AM17"/>
+      <c r="AN17"/>
+    </row>
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18"/>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'о'</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="AM18"/>
+      <c r="AN18"/>
+    </row>
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19"/>
+      <c r="C19" s="3">
+        <v>14</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'п'</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="AM19"/>
+      <c r="AN19"/>
+    </row>
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20"/>
+      <c r="C20" s="3">
+        <v>8</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'р'</v>
+      </c>
+      <c r="H20" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="AM20"/>
+      <c r="AN20"/>
+    </row>
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21"/>
+      <c r="C21" s="3">
+        <v>7</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'с'</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+    </row>
+    <row r="22" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22"/>
+      <c r="C22" s="3">
+        <v>6</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'т'</v>
+      </c>
+      <c r="H22" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+    </row>
+    <row r="23" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23"/>
+      <c r="C23" s="3">
+        <v>15</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'у'</v>
+      </c>
+      <c r="H23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="AM23"/>
+      <c r="AN23"/>
+    </row>
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24"/>
+      <c r="C24" s="3">
+        <v>31</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'ф'</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="AM24"/>
+      <c r="AN24"/>
+    </row>
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25"/>
+      <c r="C25" s="3">
+        <v>24</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G25" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'х'</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="AM25"/>
+      <c r="AN25"/>
+    </row>
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26"/>
+      <c r="C26" s="3">
+        <v>28</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'ц'</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="AM26"/>
+      <c r="AN26"/>
+    </row>
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27"/>
+      <c r="C27" s="3">
+        <v>22</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'ч'</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="AM27"/>
+      <c r="AN27"/>
+    </row>
+    <row r="28" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28"/>
+      <c r="C28" s="3">
+        <v>26</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'ш'</v>
+      </c>
+      <c r="H28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+      <c r="AM28"/>
+      <c r="AN28"/>
+    </row>
+    <row r="29" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29"/>
+      <c r="C29" s="3">
+        <v>29</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G29" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'щ'</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+    </row>
+    <row r="30" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30"/>
+      <c r="C30" s="3">
+        <v>32</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G30" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'ъ'</v>
+      </c>
+      <c r="H30" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+    </row>
+    <row r="31" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31"/>
+      <c r="C31" s="3">
+        <v>17</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'ы'</v>
+      </c>
+      <c r="H31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+    </row>
+    <row r="32" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32"/>
+      <c r="C32" s="3">
+        <v>18</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'ь'</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="AM32"/>
+      <c r="AN32"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33"/>
+      <c r="C33" s="3">
+        <v>30</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'э'</v>
+      </c>
+      <c r="H33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="AM33"/>
+      <c r="AN33"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34"/>
+      <c r="C34" s="3">
+        <v>27</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G34" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'ю'</v>
+      </c>
+      <c r="H34" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="AM34"/>
+      <c r="AN34"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35"/>
+      <c r="C35" s="3">
+        <v>16</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="4" t="str">
+        <f>"// "&amp;Table1[[#This Row],[CHAR]]</f>
+        <v>// 'я'</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="AM35"/>
+      <c r="AN35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>